--- a/xschem/switch/Treshold voltages compared.xlsx
+++ b/xschem/switch/Treshold voltages compared.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28b581510f85c979/Studium/_Masterarbeit/eda/designs/SKY130_SAR-ADC/xschem/switch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE3FB9E0-B630-409B-94B4-222F4C26302B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{BE3FB9E0-B630-409B-94B4-222F4C26302B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4D36D38-161E-4E03-AFAE-0176192BB54B}"/>
   <bookViews>
-    <workbookView xWindow="9735" yWindow="3180" windowWidth="20550" windowHeight="11835" xr2:uid="{B9022762-13AA-4716-A70A-63921C74038C}"/>
+    <workbookView xWindow="6510" yWindow="2940" windowWidth="20550" windowHeight="11835" xr2:uid="{B9022762-13AA-4716-A70A-63921C74038C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -82,7 +83,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,8 +108,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -116,111 +123,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -538,7 +460,7 @@
   <dimension ref="A1:AD15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +469,7 @@
     <col min="2" max="30" width="3.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="21" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -611,28 +533,28 @@
       <c r="V1" s="2">
         <v>1</v>
       </c>
-      <c r="W1" s="2">
+      <c r="W1" s="10">
         <v>1.05</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X1" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Y1" s="10">
         <v>1.1499999999999999</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="Z1" s="10">
         <v>1.2</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AA1" s="10">
         <v>1.25</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AB1" s="10">
         <v>1.3</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AC1" s="10">
         <v>1.35</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AD1" s="10">
         <v>1.4</v>
       </c>
     </row>
@@ -641,110 +563,110 @@
         <v>0</v>
       </c>
       <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="6"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
-      <c r="P3" s="15"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="P3" s="6"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
-      <c r="V3" s="13"/>
+      <c r="V3" s="5"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="15"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="6"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
-      <c r="T4" s="13"/>
+      <c r="T4" s="5"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="10"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="8"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="13"/>
+      <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="9"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="9"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="10"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="9"/>
-      <c r="T9" s="15"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="T9" s="6"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="13"/>
-    </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z9" s="5"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="13"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
@@ -753,13 +675,13 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
